--- a/FMRP_Binding_sites_mouse_Maurin_NAR_2014.xlsx
+++ b/FMRP_Binding_sites_mouse_Maurin_NAR_2014.xlsx
@@ -26076,7 +26076,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="40.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
